--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_3_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3785640.308821701</v>
+        <v>3783752.727305298</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673438</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7934495.5534405</v>
+        <v>7934495.553440501</v>
       </c>
     </row>
     <row r="11">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>173.3126099940012</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>313.2070399508087</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>37.83808333974894</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>9.220846587375998</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>226.7473120719538</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>339.468661661232</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,19 +1054,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>9.461970681989259</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1136,10 +1136,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>110.7937263796624</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>158.4785919752547</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -1193,10 +1193,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,13 +1333,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>60.92600812502312</v>
       </c>
       <c r="W10" t="n">
-        <v>208.279329433658</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>35.29893409632404</v>
       </c>
       <c r="U13" t="n">
-        <v>256.3432811758635</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1619,13 +1619,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,19 +1819,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>101.2898147863548</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,13 +1892,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>112.2536425510785</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065121</v>
+        <v>216.2479102458282</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2302,10 +2302,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>206.8064269214862</v>
+        <v>75.06705067831038</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2761,13 +2761,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>206.8064269214861</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>112.3329922232357</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700707</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
-        <v>90.2177913943741</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897898</v>
+        <v>93.71057173897916</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571484</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523565</v>
+        <v>54.76109577523582</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550461</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298321</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700202</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.50639876048</v>
+        <v>28.78373385837971</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235376</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3557,7 +3557,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3752,13 +3752,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1039.703785687808</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1039.703785687808</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>1039.703785687808</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>653.9155330895642</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>242.9296282999566</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>229.0062242385475</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2189.908715988822</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.442957727742</v>
+        <v>1346.11282670441</v>
       </c>
       <c r="Y2" t="n">
-        <v>1426.30362575193</v>
+        <v>1346.11282670441</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4422,7 +4422,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
@@ -4431,7 +4431,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>689.9086980046678</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>520.9725150767609</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>370.8558756644252</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>802.0401021781393</v>
+        <v>898.370220641533</v>
       </c>
       <c r="C5" t="n">
-        <v>433.0775852377275</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="D5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990285</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="V5" t="n">
-        <v>2147.451536646714</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="W5" t="n">
-        <v>1794.6828813766</v>
+        <v>2048.575150942546</v>
       </c>
       <c r="X5" t="n">
-        <v>1421.217123115521</v>
+        <v>1675.109392681466</v>
       </c>
       <c r="Y5" t="n">
-        <v>1031.077791139709</v>
+        <v>1284.970060705655</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4641,19 +4641,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>352.67413830922</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>63.50052796378793</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>962.1194880117298</v>
+        <v>709.153234505251</v>
       </c>
       <c r="C8" t="n">
-        <v>593.1569710713181</v>
+        <v>340.1907175648393</v>
       </c>
       <c r="D8" t="n">
-        <v>234.8912724645676</v>
+        <v>340.1907175648393</v>
       </c>
       <c r="E8" t="n">
-        <v>234.8912724645676</v>
+        <v>228.2778626358873</v>
       </c>
       <c r="F8" t="n">
-        <v>227.9457717153642</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>214.0223676539551</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.387305656314</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.324418312743</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>2112.324418312743</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X8" t="n">
-        <v>1738.858660051663</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="Y8" t="n">
-        <v>1348.719328075852</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="9">
@@ -4878,25 +4878,25 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W10" t="n">
-        <v>517.7458231623355</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X10" t="n">
-        <v>517.7458231623355</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="11">
@@ -5066,10 +5066,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
@@ -5124,16 +5124,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>563.7235867775518</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M12" t="n">
-        <v>1332.091733170013</v>
+        <v>1406.737288300438</v>
       </c>
       <c r="N12" t="n">
-        <v>1661.954360834046</v>
+        <v>1736.599915964471</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>244.1070389581962</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C13" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1070389581962</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
         <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5221,28 +5221,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="U13" t="n">
-        <v>1016.198248099061</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="V13" t="n">
-        <v>761.5137598931741</v>
+        <v>1152.265668049094</v>
       </c>
       <c r="W13" t="n">
-        <v>472.0965898562135</v>
+        <v>862.8484980121333</v>
       </c>
       <c r="X13" t="n">
-        <v>244.1070389581962</v>
+        <v>634.8589471141159</v>
       </c>
       <c r="Y13" t="n">
-        <v>244.1070389581962</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,7 +5276,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
@@ -5312,16 +5312,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.043068977054</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N15" t="n">
-        <v>1999.905696641086</v>
+        <v>1894.594339433114</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5437,10 +5437,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471192</v>
@@ -5458,25 +5458,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.21084526296</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
         <v>97.21709146028584</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5513,7 +5513,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5592,7 +5592,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
         <v>287.7778528277033</v>
@@ -5601,19 +5601,19 @@
         <v>901.674922584592</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641086</v>
+        <v>2013.406634128704</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,7 +5647,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>210.604609188648</v>
       </c>
       <c r="C19" t="n">
         <v>97.21709146028584</v>
@@ -5680,7 +5680,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5689,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>874.9271131227919</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>620.242624916905</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>620.242624916905</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188877</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>392.2530740188877</v>
       </c>
     </row>
     <row r="20">
@@ -5741,34 +5741,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
@@ -5838,19 +5838,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
         <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688068</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.497233179936</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471187</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974666</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531122</v>
+        <v>1080.564027901911</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>791.4353891154691</v>
       </c>
       <c r="V22" t="n">
-        <v>835.4163915387937</v>
+        <v>536.7509009095822</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018332</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6069,22 +6069,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1090.100879744681</v>
+        <v>1112.095853319815</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>822.9672145333731</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>568.2827263274862</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>278.8655562905255</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6227,16 +6227,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6260,16 +6260,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6382,13 +6382,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
         <v>779.0639759471192</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6409,22 +6409,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6449,10 +6449,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,10 +6464,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6488,10 +6488,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6543,22 +6543,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>451.952360590729</v>
+        <v>582.6866369260352</v>
       </c>
       <c r="C31" t="n">
-        <v>338.7770429441929</v>
+        <v>469.511319279499</v>
       </c>
       <c r="D31" t="n">
-        <v>338.7770429441929</v>
+        <v>375.155545148534</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441929</v>
+        <v>283.0033168475115</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276534</v>
+        <v>191.8742346309719</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864672</v>
+        <v>164.2510079864671</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933502</v>
+        <v>369.0876362933499</v>
       </c>
       <c r="L31" t="n">
-        <v>671.450905366751</v>
+        <v>671.4509053667506</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962046</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353693</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021646</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056075</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899271</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096194</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.628130167071</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737484</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>902.680428981894</v>
+        <v>902.6804289818917</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652476</v>
+        <v>873.6059503370637</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030882</v>
+        <v>708.5742364749043</v>
       </c>
     </row>
     <row r="32">
@@ -6689,34 +6689,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506721</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083203</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103127</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N34" t="n">
         <v>1386.860941116388</v>
@@ -6877,31 +6877,31 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6917,25 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -7014,19 +7014,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M36" t="n">
-        <v>1514.038914395485</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N36" t="n">
-        <v>1843.901542059518</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O36" t="n">
         <v>2123.441607278215</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108336</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525397</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649691</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7114,7 +7114,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045213</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010323</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,49 +7157,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,16 +7208,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.274692278279</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,25 +7309,25 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083209</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504516</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103133</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,16 +7397,16 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7427,13 +7427,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L42" t="n">
-        <v>1206.718781115524</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M42" t="n">
-        <v>1514.038914395485</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N42" t="n">
-        <v>1843.901542059518</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O42" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H43" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7725,22 +7725,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>841.8631140141288</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P45" t="n">
         <v>2317.834075963124</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
         <v>478.0475988506725</v>
@@ -7798,7 +7798,7 @@
         <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
         <v>97.21709146028584</v>
@@ -7807,7 +7807,7 @@
         <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
         <v>709.8489468649691</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
   </sheetData>
@@ -8070,10 +8070,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,10 +8292,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,13 +8541,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8772,19 +8772,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>29.47535963978231</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9018,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>52.49733361305249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>158.872441903933</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9249,13 +9249,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305249</v>
+        <v>28.1226370626303</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9492,16 +9492,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>277.6717966208062</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9717,25 +9717,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>392.1113620226433</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>34.78428385445217</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>234.4116509503166</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
@@ -10112,7 +10112,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10191,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>283.6093329825491</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>202.5230052237938</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,10 +10899,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,19 +10911,19 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>188.8856946302409</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>369.0893880493732</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,10 +11388,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>349.7653003338571</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>186.2486269620652</v>
       </c>
       <c r="U13" t="n">
-        <v>29.89407122271381</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,19 +23707,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>185.2331835502362</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>54.99317854754933</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,7 +24142,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518772</v>
+        <v>5.299650812561051</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24190,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>14.74113413690307</v>
+        <v>146.4805103800789</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24649,13 +24649,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338589</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.7411341369031</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>12.29573133014448</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965521</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801203</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571501</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>141.7226649021005</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666584.7624635146</v>
+        <v>666584.7624635147</v>
       </c>
     </row>
     <row r="6">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>692643.3405159907</v>
+        <v>692643.3405159906</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244619</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147614</v>
+        <v>723403.7605147613</v>
       </c>
       <c r="H2" t="n">
         <v>723403.7605147611</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.7605147612</v>
+        <v>723403.7605147616</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887494</v>
+        <v>752620.9540887491</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="N2" t="n">
         <v>759463.6371244611</v>
       </c>
       <c r="O2" t="n">
-        <v>759463.6371244611</v>
+        <v>759463.6371244612</v>
       </c>
       <c r="P2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244612</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284558</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086682</v>
+        <v>10342.90680086693</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284571</v>
+        <v>44162.60530284559</v>
       </c>
     </row>
     <row r="4">
@@ -26439,19 +26439,19 @@
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687073</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106722</v>
       </c>
       <c r="L4" t="n">
         <v>44593.39482819119</v>
       </c>
       <c r="M4" t="n">
+        <v>44593.39482819121</v>
+      </c>
+      <c r="N4" t="n">
         <v>44593.39482819119</v>
-      </c>
-      <c r="N4" t="n">
-        <v>44593.39482819118</v>
       </c>
       <c r="O4" t="n">
         <v>44593.3948281912</v>
@@ -26479,16 +26479,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26503,10 +26503,10 @@
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-78996.18794001621</v>
+        <v>-78996.18794001598</v>
       </c>
       <c r="C6" t="n">
-        <v>510971.6912745287</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="D6" t="n">
-        <v>510971.691274528</v>
+        <v>510971.6912745285</v>
       </c>
       <c r="E6" t="n">
-        <v>84081.79050227806</v>
+        <v>83984.33137630566</v>
       </c>
       <c r="F6" t="n">
-        <v>609241.8269791742</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="G6" t="n">
-        <v>609241.8269791742</v>
+        <v>609144.3678532019</v>
       </c>
       <c r="H6" t="n">
-        <v>609241.8269791738</v>
+        <v>609144.3678532017</v>
       </c>
       <c r="I6" t="n">
-        <v>609241.826979174</v>
+        <v>609144.3678532018</v>
       </c>
       <c r="J6" t="n">
-        <v>432818.6077865809</v>
+        <v>432721.1486606092</v>
       </c>
       <c r="K6" t="n">
-        <v>571490.9101546137</v>
+        <v>571472.4164166792</v>
       </c>
       <c r="L6" t="n">
-        <v>606812.2296753776</v>
+        <v>606812.2296753777</v>
       </c>
       <c r="M6" t="n">
-        <v>482354.1212424074</v>
+        <v>482354.1212424082</v>
       </c>
       <c r="N6" t="n">
         <v>617155.1364762445</v>
       </c>
       <c r="O6" t="n">
-        <v>617155.1364762444</v>
+        <v>617155.1364762447</v>
       </c>
       <c r="P6" t="n">
-        <v>572992.5311733987</v>
+        <v>572992.5311733991</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="M2" t="n">
-        <v>68.13189012964065</v>
-      </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,25 +26735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26765,16 +26765,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108352</v>
+        <v>12.92863350108367</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855699</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>150.6101627703559</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,16 +27424,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>56.5240607276603</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.9938968421883</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>155.9865295915268</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>25.80423010977552</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,28 +27774,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>277.0610276546017</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27856,10 +27856,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>271.1366436925994</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>165.4441807891024</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27913,10 +27913,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -28068,16 +28068,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>191.2116351988049</v>
       </c>
       <c r="W10" t="n">
-        <v>78.24366890293302</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29323,7 +29323,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855714</v>
+        <v>55.20325662855697</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="41">
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33506,10 +33506,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33524,10 +33524,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,7 +33673,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33682,7 +33682,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,7 +33734,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33761,10 +33761,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,13 +35261,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35492,19 +35492,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>278.7330645958066</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>510.1640057735818</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>88.0130327850741</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>334.8610358541607</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35969,22 +35969,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541607</v>
+        <v>310.4863393037384</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36206,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>560.0354988619143</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,25 +36437,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206563</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,10 +36674,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>483.6693559063409</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36689,7 +36689,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36911,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>594.0337100330154</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412267</v>
+        <v>67.7110267941225</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584677</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084857</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075297</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341608</v>
+        <v>328.4801344341606</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403579</v>
+        <v>233.5868572403577</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.4289566004319</v>
+        <v>94.42895660043173</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>535.7175786218068</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>598.8335596281419</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37473,13 +37473,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
@@ -37631,19 +37631,19 @@
         <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>471.2493968713491</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>679.5137650998395</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38093,10 +38093,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38108,10 +38108,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>632.1290025749652</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,7 +38184,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
         <v>304.3692416502435</v>
